--- a/08-agosto/6-portal-cliente/debarrenechea/DEBA.xlsx
+++ b/08-agosto/6-portal-cliente/debarrenechea/DEBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\debarrenechea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\debarrenechea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E742988-974F-490D-A53A-427EC0FF8D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F5AB38-E85B-4486-9DE3-1735F9A34CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28650" yWindow="840" windowWidth="27360" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>|</t>
   </si>
   <si>
-    <t>JULIO 2025</t>
+    <t>AGOSTO 2025</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +775,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,24 +1249,24 @@
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="35" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
@@ -1369,11 +1369,11 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1387,11 +1387,11 @@
         <v>898731.64</v>
       </c>
       <c r="I26" s="20"/>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1407,11 +1407,11 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1425,11 +1425,11 @@
         <v>898731.64</v>
       </c>
       <c r="I27" s="20"/>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1445,11 +1445,11 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="20"/>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1463,11 +1463,11 @@
         <v>898731.64</v>
       </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1483,11 +1483,11 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="20"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="13">
         <f>+L6</f>
         <v>1264345.28</v>
@@ -1501,11 +1501,11 @@
         <v>1893910.3399999999</v>
       </c>
       <c r="I29" s="20"/>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="13">
         <f>+L7</f>
         <v>1278572.3999999999</v>
@@ -1521,11 +1521,11 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1539,11 +1539,11 @@
         <v>898731.64</v>
       </c>
       <c r="I30" s="20"/>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
       <c r="M30" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1559,11 +1559,11 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="26">
@@ -1571,11 +1571,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="20"/>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="26">
@@ -1585,11 +1585,11 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="26">
@@ -1597,11 +1597,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="26">
@@ -1611,11 +1611,11 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="20"/>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="13">
         <f>+L6</f>
         <v>1264345.28</v>
@@ -1629,11 +1629,11 @@
         <v>1893910.3399999999</v>
       </c>
       <c r="I33" s="20"/>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="13">
         <f>+L7</f>
         <v>1278572.3999999999</v>
@@ -1649,11 +1649,11 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="13">
         <f>+C23</f>
         <v>632172.64</v>
@@ -1667,11 +1667,11 @@
         <v>946955.16999999993</v>
       </c>
       <c r="I34" s="20"/>
-      <c r="J34" s="33" t="s">
+      <c r="J34" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
       <c r="M34" s="13">
         <f>+K7</f>
         <v>639286.19999999995</v>
@@ -1687,11 +1687,11 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1705,11 +1705,11 @@
         <v>898731.64</v>
       </c>
       <c r="I35" s="20"/>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
       <c r="M35" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1725,22 +1725,22 @@
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="28">
         <v>4692.47</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="29"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="28">
         <v>4692.47</v>
       </c>
@@ -1770,18 +1770,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="J26:L26"/>
@@ -1794,6 +1782,18 @@
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
